--- a/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
+++ b/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62528AF-FD84-4A70-AF24-591A56525E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941C1005-ADB5-4714-A283-F9BD4E4919CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,12 +566,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="23" max="23" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -850,7 +852,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -873,7 +875,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -1149,7 +1151,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
@@ -1172,7 +1174,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -1448,7 +1450,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -1471,7 +1473,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>44908</v>
+        <v>44543</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -1500,7 +1502,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -1770,7 +1772,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -1793,7 +1795,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="1">
-        <v>44908</v>
+        <v>44543</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
@@ -1822,7 +1824,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
@@ -2092,7 +2094,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
@@ -2115,7 +2117,7 @@
         <v>39</v>
       </c>
       <c r="B53" s="1">
-        <v>44908</v>
+        <v>44543</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -2144,7 +2146,7 @@
         <v>39</v>
       </c>
       <c r="B54" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C54" t="s">
         <v>32</v>
@@ -2414,7 +2416,7 @@
         <v>41</v>
       </c>
       <c r="B63" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -2437,7 +2439,7 @@
         <v>41</v>
       </c>
       <c r="B64" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C64" t="s">
         <v>32</v>
@@ -2713,7 +2715,7 @@
         <v>43</v>
       </c>
       <c r="B73" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -2736,7 +2738,7 @@
         <v>43</v>
       </c>
       <c r="B74" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -3064,7 +3066,7 @@
         <v>45</v>
       </c>
       <c r="B85" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D85" t="s">
         <v>46</v>
@@ -3087,7 +3089,7 @@
         <v>45</v>
       </c>
       <c r="B86" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C86" t="s">
         <v>32</v>
@@ -3415,7 +3417,7 @@
         <v>48</v>
       </c>
       <c r="B97" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D97" t="s">
         <v>46</v>
@@ -3438,7 +3440,7 @@
         <v>48</v>
       </c>
       <c r="B98" s="1">
-        <v>44908</v>
+        <v>44543</v>
       </c>
       <c r="C98" t="s">
         <v>32</v>
@@ -3467,7 +3469,7 @@
         <v>48</v>
       </c>
       <c r="B99" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C99" t="s">
         <v>32</v>
@@ -3789,7 +3791,7 @@
         <v>49</v>
       </c>
       <c r="B110" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D110" t="s">
         <v>46</v>
@@ -3812,7 +3814,7 @@
         <v>49</v>
       </c>
       <c r="B111" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C111" t="s">
         <v>32</v>
@@ -4140,7 +4142,7 @@
         <v>50</v>
       </c>
       <c r="B122" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D122" t="s">
         <v>46</v>
@@ -4163,7 +4165,7 @@
         <v>50</v>
       </c>
       <c r="B123" s="1">
-        <v>44908</v>
+        <v>44543</v>
       </c>
       <c r="C123" t="s">
         <v>32</v>
@@ -4192,7 +4194,7 @@
         <v>50</v>
       </c>
       <c r="B124" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C124" t="s">
         <v>32</v>
@@ -4514,7 +4516,7 @@
         <v>51</v>
       </c>
       <c r="B135" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D135" t="s">
         <v>46</v>
@@ -4537,7 +4539,7 @@
         <v>51</v>
       </c>
       <c r="B136" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C136" t="s">
         <v>32</v>
@@ -4865,7 +4867,7 @@
         <v>52</v>
       </c>
       <c r="B147" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D147" t="s">
         <v>46</v>
@@ -4888,7 +4890,7 @@
         <v>52</v>
       </c>
       <c r="B148" s="1">
-        <v>44908</v>
+        <v>44543</v>
       </c>
       <c r="C148" t="s">
         <v>32</v>
@@ -4917,7 +4919,7 @@
         <v>52</v>
       </c>
       <c r="B149" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C149" t="s">
         <v>32</v>
@@ -5239,7 +5241,7 @@
         <v>53</v>
       </c>
       <c r="B160" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D160" t="s">
         <v>46</v>
@@ -5262,7 +5264,7 @@
         <v>53</v>
       </c>
       <c r="B161" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C161" t="s">
         <v>32</v>
@@ -5564,7 +5566,7 @@
         <v>54</v>
       </c>
       <c r="B171" s="1">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="D171" t="s">
         <v>55</v>
@@ -5590,7 +5592,7 @@
         <v>54</v>
       </c>
       <c r="B172" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D172" t="s">
         <v>55</v>
@@ -5613,7 +5615,7 @@
         <v>54</v>
       </c>
       <c r="B173" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C173" t="s">
         <v>32</v>
@@ -5921,7 +5923,7 @@
         <v>57</v>
       </c>
       <c r="B183" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D183" t="s">
         <v>55</v>
@@ -5944,7 +5946,7 @@
         <v>57</v>
       </c>
       <c r="B184" s="1">
-        <v>44908</v>
+        <v>44543</v>
       </c>
       <c r="C184" t="s">
         <v>32</v>
@@ -5973,7 +5975,7 @@
         <v>57</v>
       </c>
       <c r="B185" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C185" t="s">
         <v>32</v>
@@ -6269,7 +6271,7 @@
         <v>58</v>
       </c>
       <c r="B195" s="1">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="D195" t="s">
         <v>55</v>
@@ -6295,7 +6297,7 @@
         <v>58</v>
       </c>
       <c r="B196" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D196" t="s">
         <v>55</v>
@@ -6318,7 +6320,7 @@
         <v>58</v>
       </c>
       <c r="B197" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C197" t="s">
         <v>32</v>
@@ -6626,7 +6628,7 @@
         <v>59</v>
       </c>
       <c r="B207" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D207" t="s">
         <v>55</v>
@@ -6649,7 +6651,7 @@
         <v>59</v>
       </c>
       <c r="B208" s="1">
-        <v>44908</v>
+        <v>44543</v>
       </c>
       <c r="C208" t="s">
         <v>32</v>
@@ -6678,7 +6680,7 @@
         <v>59</v>
       </c>
       <c r="B209" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C209" t="s">
         <v>32</v>
@@ -6980,7 +6982,7 @@
         <v>60</v>
       </c>
       <c r="B219" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D219" t="s">
         <v>55</v>
@@ -7003,7 +7005,7 @@
         <v>60</v>
       </c>
       <c r="B220" s="1">
-        <v>44908</v>
+        <v>44543</v>
       </c>
       <c r="C220" t="s">
         <v>32</v>
@@ -7032,7 +7034,7 @@
         <v>60</v>
       </c>
       <c r="B221" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C221" t="s">
         <v>32</v>
@@ -7328,7 +7330,7 @@
         <v>61</v>
       </c>
       <c r="B231" s="1">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="D231" t="s">
         <v>55</v>
@@ -7354,7 +7356,7 @@
         <v>61</v>
       </c>
       <c r="B232" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D232" t="s">
         <v>55</v>
@@ -7377,7 +7379,7 @@
         <v>61</v>
       </c>
       <c r="B233" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C233" t="s">
         <v>32</v>
@@ -7679,7 +7681,7 @@
         <v>62</v>
       </c>
       <c r="B243" s="1">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="D243" t="s">
         <v>55</v>
@@ -7705,7 +7707,7 @@
         <v>62</v>
       </c>
       <c r="B244" s="1">
-        <v>44867</v>
+        <v>44502</v>
       </c>
       <c r="D244" t="s">
         <v>55</v>
@@ -7728,7 +7730,7 @@
         <v>62</v>
       </c>
       <c r="B245" s="1">
-        <v>44917</v>
+        <v>44552</v>
       </c>
       <c r="C245" t="s">
         <v>32</v>

--- a/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
+++ b/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
+++ b/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
@@ -538,22 +538,22 @@
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
+++ b/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +557,7 @@
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
@@ -571,7 +572,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -608,7 +609,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -645,7 +646,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -682,7 +683,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -719,7 +720,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -756,7 +757,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -793,7 +794,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -830,7 +831,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -867,7 +868,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -904,7 +905,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -973,7 +974,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1010,7 +1011,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1047,7 +1048,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1084,7 +1085,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1121,7 +1122,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1158,7 +1159,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1195,7 +1196,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1232,7 +1233,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1269,7 +1270,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1306,7 +1307,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1375,7 +1376,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1412,7 +1413,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1449,7 +1450,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1486,7 +1487,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1523,7 +1524,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1560,7 +1561,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1597,7 +1598,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1634,7 +1635,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1671,7 +1672,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1708,7 +1709,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1749,7 +1750,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1814,7 +1815,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1851,7 +1852,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1888,7 +1889,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1925,7 +1926,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1962,7 +1963,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1999,7 +2000,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2036,7 +2037,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2073,7 +2074,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2110,7 +2111,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2147,7 +2148,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2188,7 +2189,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2253,7 +2254,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2290,7 +2291,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2327,7 +2328,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2364,7 +2365,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2401,7 +2402,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2438,7 +2439,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2475,7 +2476,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2512,7 +2513,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2549,7 +2550,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2586,7 +2587,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2627,7 +2628,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2692,7 +2693,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2729,7 +2730,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2766,7 +2767,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2803,7 +2804,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2840,7 +2841,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2877,7 +2878,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2914,7 +2915,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2951,7 +2952,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2988,7 +2989,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3025,7 +3026,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3094,7 +3095,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3131,7 +3132,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3168,7 +3169,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3205,7 +3206,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3242,7 +3243,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3279,7 +3280,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3316,7 +3317,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3353,7 +3354,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3390,7 +3391,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3427,7 +3428,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3496,7 +3497,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3533,7 +3534,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3570,7 +3571,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3607,7 +3608,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3644,7 +3645,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3681,7 +3682,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3718,7 +3719,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3755,7 +3756,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3792,7 +3793,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3829,7 +3830,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3866,7 +3867,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3903,7 +3904,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3972,7 +3973,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4009,7 +4010,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4046,7 +4047,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4083,7 +4084,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4120,7 +4121,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4157,7 +4158,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4194,7 +4195,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4231,7 +4232,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4268,7 +4269,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4305,7 +4306,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4342,7 +4343,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4379,7 +4380,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4420,7 +4421,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4485,7 +4486,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4522,7 +4523,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4559,7 +4560,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4596,7 +4597,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4633,7 +4634,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4670,7 +4671,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4707,7 +4708,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4744,7 +4745,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4781,7 +4782,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4818,7 +4819,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4855,7 +4856,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4892,7 +4893,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4961,7 +4962,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4998,7 +4999,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5035,7 +5036,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5072,7 +5073,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5109,7 +5110,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5146,7 +5147,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5183,7 +5184,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5220,7 +5221,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5257,7 +5258,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5294,7 +5295,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5331,7 +5332,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5368,7 +5369,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5409,7 +5410,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -5474,7 +5475,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5511,7 +5512,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5548,7 +5549,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5585,7 +5586,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5622,7 +5623,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5659,7 +5660,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5696,7 +5697,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5733,7 +5734,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5770,7 +5771,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5807,7 +5808,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5844,7 +5845,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5881,7 +5882,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -5950,7 +5951,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5987,7 +5988,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6024,7 +6025,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6061,7 +6062,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6098,7 +6099,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6135,7 +6136,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6172,7 +6173,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6209,7 +6210,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6246,7 +6247,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6283,7 +6284,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6320,7 +6321,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6357,7 +6358,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -6398,7 +6399,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -6463,7 +6464,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6500,7 +6501,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6537,7 +6538,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6574,7 +6575,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6611,7 +6612,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6648,7 +6649,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6685,7 +6686,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6722,7 +6723,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6759,7 +6760,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6796,7 +6797,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6833,7 +6834,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6870,7 +6871,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -6939,7 +6940,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6976,7 +6977,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7013,7 +7014,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7050,7 +7051,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7087,7 +7088,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7124,7 +7125,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7161,7 +7162,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -7198,7 +7199,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -7235,7 +7236,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -7272,7 +7273,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>44501</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7309,7 +7310,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7346,7 +7347,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -7415,7 +7416,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7452,7 +7453,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7489,7 +7490,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7526,7 +7527,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7563,7 +7564,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7600,7 +7601,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7637,7 +7638,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7674,7 +7675,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7711,7 +7712,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7752,7 +7753,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7789,7 +7790,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -7830,7 +7831,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -7895,7 +7896,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7932,7 +7933,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7969,7 +7970,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -8006,7 +8007,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8043,7 +8044,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8080,7 +8081,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8117,7 +8118,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8154,7 +8155,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8191,7 +8192,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8228,7 +8229,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>44501</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8265,7 +8266,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8302,7 +8303,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -8371,7 +8372,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -8408,7 +8409,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8445,7 +8446,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8482,7 +8483,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8519,7 +8520,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8556,7 +8557,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8593,7 +8594,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8630,7 +8631,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8667,7 +8668,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8708,7 +8709,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8745,7 +8746,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -8786,7 +8787,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -8851,7 +8852,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8888,7 +8889,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8925,7 +8926,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8962,7 +8963,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8999,7 +9000,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9036,7 +9037,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9073,7 +9074,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9110,7 +9111,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9147,7 +9148,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9188,7 +9189,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9225,7 +9226,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -9266,7 +9267,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C221" t="inlineStr">
@@ -9331,7 +9332,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9368,7 +9369,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9405,7 +9406,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9442,7 +9443,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9479,7 +9480,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9516,7 +9517,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9553,7 +9554,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9590,7 +9591,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9627,7 +9628,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9664,7 +9665,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>44501</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9701,7 +9702,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9738,7 +9739,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C233" t="inlineStr">
@@ -9807,7 +9808,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9844,7 +9845,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9881,7 +9882,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9918,7 +9919,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9955,7 +9956,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9992,7 +9993,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -10029,7 +10030,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -10066,7 +10067,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -10103,7 +10104,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -10140,7 +10141,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>44501</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -10177,7 +10178,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -10214,7 +10215,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C245" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
+++ b/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +556,7 @@
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
@@ -572,7 +571,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -609,7 +608,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -646,7 +645,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -683,7 +682,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -720,7 +719,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -757,7 +756,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -794,7 +793,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -831,7 +830,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -868,7 +867,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -905,7 +904,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -974,7 +973,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1011,7 +1010,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1048,7 +1047,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1085,7 +1084,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1122,7 +1121,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1159,7 +1158,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1196,7 +1195,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1233,7 +1232,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1270,7 +1269,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1307,7 +1306,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1376,7 +1375,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1413,7 +1412,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1450,7 +1449,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1487,7 +1486,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1524,7 +1523,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1561,7 +1560,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1598,7 +1597,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1635,7 +1634,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1672,7 +1671,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1709,7 +1708,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1750,7 +1749,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1815,7 +1814,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1852,7 +1851,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1889,7 +1888,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1926,7 +1925,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1963,7 +1962,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2000,7 +1999,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2037,7 +2036,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2074,7 +2073,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2111,7 +2110,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2148,7 +2147,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2189,7 +2188,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2254,7 +2253,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2291,7 +2290,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2328,7 +2327,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2365,7 +2364,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2402,7 +2401,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2439,7 +2438,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2476,7 +2475,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2513,7 +2512,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2550,7 +2549,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2587,7 +2586,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2628,7 +2627,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2693,7 +2692,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2730,7 +2729,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2767,7 +2766,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2804,7 +2803,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2841,7 +2840,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2878,7 +2877,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2915,7 +2914,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2952,7 +2951,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2989,7 +2988,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3026,7 +3025,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3095,7 +3094,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3132,7 +3131,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3169,7 +3168,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3206,7 +3205,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3243,7 +3242,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3280,7 +3279,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3317,7 +3316,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3354,7 +3353,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3391,7 +3390,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3428,7 +3427,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3497,7 +3496,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3534,7 +3533,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3571,7 +3570,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3608,7 +3607,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3645,7 +3644,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3682,7 +3681,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3719,7 +3718,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3756,7 +3755,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3793,7 +3792,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3830,7 +3829,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3867,7 +3866,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3904,7 +3903,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3973,7 +3972,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4010,7 +4009,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4047,7 +4046,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4084,7 +4083,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4121,7 +4120,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4158,7 +4157,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4195,7 +4194,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4232,7 +4231,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4269,7 +4268,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4306,7 +4305,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4343,7 +4342,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4380,7 +4379,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4421,7 +4420,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4486,7 +4485,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4523,7 +4522,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4560,7 +4559,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4597,7 +4596,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4634,7 +4633,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4671,7 +4670,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4708,7 +4707,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4745,7 +4744,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4782,7 +4781,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4819,7 +4818,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4856,7 +4855,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4893,7 +4892,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4962,7 +4961,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4999,7 +4998,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5036,7 +5035,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5073,7 +5072,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5110,7 +5109,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5147,7 +5146,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5184,7 +5183,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5221,7 +5220,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5258,7 +5257,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5295,7 +5294,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5332,7 +5331,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5369,7 +5368,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5410,7 +5409,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -5475,7 +5474,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5512,7 +5511,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5549,7 +5548,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5586,7 +5585,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5623,7 +5622,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5660,7 +5659,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5697,7 +5696,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5734,7 +5733,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5771,7 +5770,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5808,7 +5807,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5845,7 +5844,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5882,7 +5881,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -5951,7 +5950,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5988,7 +5987,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6025,7 +6024,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6062,7 +6061,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6099,7 +6098,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6136,7 +6135,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6173,7 +6172,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6210,7 +6209,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6247,7 +6246,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6284,7 +6283,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6321,7 +6320,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6358,7 +6357,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -6399,7 +6398,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -6464,7 +6463,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6501,7 +6500,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6538,7 +6537,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6575,7 +6574,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6612,7 +6611,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6649,7 +6648,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6686,7 +6685,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6723,7 +6722,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6760,7 +6759,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6797,7 +6796,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6834,7 +6833,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6871,7 +6870,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -6940,7 +6939,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6977,7 +6976,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7014,7 +7013,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7051,7 +7050,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7088,7 +7087,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7125,7 +7124,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7162,7 +7161,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -7199,7 +7198,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -7236,7 +7235,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -7273,7 +7272,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>44501</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7310,7 +7309,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7347,7 +7346,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -7416,7 +7415,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7453,7 +7452,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7490,7 +7489,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7527,7 +7526,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7564,7 +7563,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7601,7 +7600,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7638,7 +7637,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7675,7 +7674,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7712,7 +7711,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7753,7 +7752,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7790,7 +7789,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -7831,7 +7830,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -7896,7 +7895,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7933,7 +7932,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7970,7 +7969,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -8007,7 +8006,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8044,7 +8043,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8081,7 +8080,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8118,7 +8117,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8155,7 +8154,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8192,7 +8191,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8229,7 +8228,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>44501</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8266,7 +8265,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8303,7 +8302,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -8372,7 +8371,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -8409,7 +8408,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8446,7 +8445,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8483,7 +8482,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8520,7 +8519,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8557,7 +8556,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8594,7 +8593,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8631,7 +8630,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8668,7 +8667,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8709,7 +8708,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8746,7 +8745,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -8787,7 +8786,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -8852,7 +8851,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8889,7 +8888,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8926,7 +8925,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8963,7 +8962,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9000,7 +8999,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9037,7 +9036,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9074,7 +9073,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9111,7 +9110,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9148,7 +9147,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9189,7 +9188,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9226,7 +9225,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -9267,7 +9266,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C221" t="inlineStr">
@@ -9332,7 +9331,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9369,7 +9368,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9406,7 +9405,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9443,7 +9442,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9480,7 +9479,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9517,7 +9516,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9554,7 +9553,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9591,7 +9590,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9628,7 +9627,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9665,7 +9664,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>44501</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9702,7 +9701,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9739,7 +9738,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C233" t="inlineStr">
@@ -9808,7 +9807,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9845,7 +9844,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9882,7 +9881,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9919,7 +9918,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9956,7 +9955,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9993,7 +9992,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -10030,7 +10029,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -10067,7 +10066,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -10104,7 +10103,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -10141,7 +10140,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>44501</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -10178,7 +10177,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -10215,7 +10214,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="C245" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
+++ b/Tests/Validation/Wheat/data/FAR RRC W21-03.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +557,7 @@
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
@@ -571,7 +572,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -608,7 +609,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -645,7 +646,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -682,7 +683,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -719,7 +720,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -756,7 +757,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -793,7 +794,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -830,7 +831,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -867,7 +868,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -904,7 +905,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -973,7 +974,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1010,7 +1011,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1047,7 +1048,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1084,7 +1085,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1121,7 +1122,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1158,7 +1159,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1195,7 +1196,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1232,7 +1233,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1269,7 +1270,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1306,7 +1307,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1375,7 +1376,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1412,7 +1413,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1449,7 +1450,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1486,7 +1487,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1523,7 +1524,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1560,7 +1561,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1597,7 +1598,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1634,7 +1635,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1671,7 +1672,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1708,7 +1709,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1749,7 +1750,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1814,7 +1815,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1851,7 +1852,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1888,7 +1889,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1925,7 +1926,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1962,7 +1963,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1999,7 +2000,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2036,7 +2037,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2073,7 +2074,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2110,7 +2111,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2147,7 +2148,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2188,7 +2189,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2253,7 +2254,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2290,7 +2291,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2327,7 +2328,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2364,7 +2365,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2401,7 +2402,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2438,7 +2439,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2475,7 +2476,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2512,7 +2513,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2549,7 +2550,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2586,7 +2587,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2627,7 +2628,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2692,7 +2693,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2729,7 +2730,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2766,7 +2767,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2803,7 +2804,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2840,7 +2841,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2877,7 +2878,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2914,7 +2915,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2951,7 +2952,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2988,7 +2989,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3025,7 +3026,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3094,7 +3095,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3131,7 +3132,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3168,7 +3169,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3205,7 +3206,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3242,7 +3243,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3279,7 +3280,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3316,7 +3317,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3353,7 +3354,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3390,7 +3391,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3427,7 +3428,7 @@
           <t>FAR RRC W21-03MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3496,7 +3497,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3533,7 +3534,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3570,7 +3571,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3607,7 +3608,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3644,7 +3645,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3681,7 +3682,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3718,7 +3719,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3755,7 +3756,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3792,7 +3793,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3829,7 +3830,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3866,7 +3867,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3903,7 +3904,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3972,7 +3973,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4009,7 +4010,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4046,7 +4047,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4083,7 +4084,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4120,7 +4121,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4157,7 +4158,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4194,7 +4195,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4231,7 +4232,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4268,7 +4269,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4305,7 +4306,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4342,7 +4343,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4379,7 +4380,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4420,7 +4421,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4485,7 +4486,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4522,7 +4523,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4559,7 +4560,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4596,7 +4597,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4633,7 +4634,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4670,7 +4671,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4707,7 +4708,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4744,7 +4745,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4781,7 +4782,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4818,7 +4819,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4855,7 +4856,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4892,7 +4893,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4961,7 +4962,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4998,7 +4999,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5035,7 +5036,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5072,7 +5073,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5109,7 +5110,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5146,7 +5147,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5183,7 +5184,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5220,7 +5221,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5257,7 +5258,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5294,7 +5295,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5331,7 +5332,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5368,7 +5369,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5409,7 +5410,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvCatapult</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -5474,7 +5475,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5511,7 +5512,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5548,7 +5549,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5585,7 +5586,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5622,7 +5623,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5659,7 +5660,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5696,7 +5697,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5733,7 +5734,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5770,7 +5771,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5807,7 +5808,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5844,7 +5845,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5881,7 +5882,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -5950,7 +5951,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5987,7 +5988,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6024,7 +6025,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6061,7 +6062,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6098,7 +6099,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6135,7 +6136,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6172,7 +6173,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6209,7 +6210,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6246,7 +6247,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6283,7 +6284,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6320,7 +6321,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6357,7 +6358,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -6398,7 +6399,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -6463,7 +6464,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6500,7 +6501,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6537,7 +6538,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6574,7 +6575,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6611,7 +6612,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6648,7 +6649,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6685,7 +6686,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6722,7 +6723,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6759,7 +6760,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6796,7 +6797,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6833,7 +6834,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6870,7 +6871,7 @@
           <t>FAR RRC W21-03MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -6939,7 +6940,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6976,7 +6977,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7013,7 +7014,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7050,7 +7051,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7087,7 +7088,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7124,7 +7125,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7161,7 +7162,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -7198,7 +7199,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -7235,7 +7236,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -7272,7 +7273,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>44501</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7309,7 +7310,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7346,7 +7347,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -7415,7 +7416,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7452,7 +7453,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7489,7 +7490,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7526,7 +7527,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7563,7 +7564,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7600,7 +7601,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7637,7 +7638,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7674,7 +7675,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7711,7 +7712,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7752,7 +7753,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7789,7 +7790,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -7830,7 +7831,7 @@
           <t>FAR RRC W21-03MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -7895,7 +7896,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7932,7 +7933,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7969,7 +7970,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -8006,7 +8007,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8043,7 +8044,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8080,7 +8081,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8117,7 +8118,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8154,7 +8155,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8191,7 +8192,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8228,7 +8229,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>44501</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8265,7 +8266,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8302,7 +8303,7 @@
           <t>FAR RRC W21-03MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -8371,7 +8372,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -8408,7 +8409,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8445,7 +8446,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8482,7 +8483,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8519,7 +8520,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8556,7 +8557,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8593,7 +8594,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8630,7 +8631,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8667,7 +8668,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8708,7 +8709,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8745,7 +8746,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -8786,7 +8787,7 @@
           <t>FAR RRC W21-03MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -8851,7 +8852,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8888,7 +8889,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8925,7 +8926,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8962,7 +8963,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8999,7 +9000,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9036,7 +9037,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9073,7 +9074,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9110,7 +9111,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9147,7 +9148,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9188,7 +9189,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9225,7 +9226,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -9266,7 +9267,7 @@
           <t>FAR RRC W21-03MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C221" t="inlineStr">
@@ -9331,7 +9332,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9368,7 +9369,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9405,7 +9406,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9442,7 +9443,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9479,7 +9480,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9516,7 +9517,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9553,7 +9554,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9590,7 +9591,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9627,7 +9628,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9664,7 +9665,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>44501</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9701,7 +9702,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9738,7 +9739,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C233" t="inlineStr">
@@ -9807,7 +9808,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9844,7 +9845,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9881,7 +9882,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9918,7 +9919,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9955,7 +9956,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9992,7 +9993,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>44440</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -10029,7 +10030,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>44441</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -10066,7 +10067,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>44475</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -10103,7 +10104,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>44488</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -10140,7 +10141,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>44501</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -10177,7 +10178,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -10214,7 +10215,7 @@
           <t>FAR RRC W21-03MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>44552</v>
       </c>
       <c r="C245" t="inlineStr">
